--- a/documents/Unit Test/TestPlan-EN.xlsx
+++ b/documents/Unit Test/TestPlan-EN.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Programming\ISD.ICT.20232-20215235.DinhVietQuang\Unit Test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\20232 ITSS Software Development\myProject\documents\Unit Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BAEF140-CD13-4F9C-B58E-0BBAC4EA4F80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8050450-E25E-4994-BFF6-E386F47E77C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="408" windowWidth="18912" windowHeight="11832" xr2:uid="{BA49DA37-6C72-4F0C-8F29-A460207C1BDB}"/>
+    <workbookView xWindow="1920" yWindow="264" windowWidth="18912" windowHeight="11832" firstSheet="5" activeTab="7" xr2:uid="{BA49DA37-6C72-4F0C-8F29-A460207C1BDB}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="2" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="149">
   <si>
     <t xml:space="preserve">
 &lt;All notations inside the angle bracket are not part of this document, for its purpose is for extra instruction. When using this document, please erase all these notations and/or replace them with corresponding content as instructed&gt;
@@ -501,9 +501,6 @@
     <t>Dinh Viet Quang</t>
   </si>
   <si>
-    <t>19/5/2024</t>
-  </si>
-  <si>
     <t>0123456789</t>
   </si>
   <si>
@@ -514,6 +511,21 @@
   </si>
   <si>
     <t>Display Shipping infor form</t>
+  </si>
+  <si>
+    <t>Le Phu Tai</t>
+  </si>
+  <si>
+    <t>Trinh Diem Quynh</t>
+  </si>
+  <si>
+    <t>Ngo Minh Quy</t>
+  </si>
+  <si>
+    <t>Ho Nam Son</t>
+  </si>
+  <si>
+    <t>9/6/2024</t>
   </si>
 </sst>
 </file>
@@ -833,7 +845,7 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -976,6 +988,30 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -994,77 +1030,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1079,20 +1064,44 @@
     <xf numFmtId="0" fontId="18" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1502,29 +1511,8 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>Dinh</a:t>
+            <a:t>Group 17</a:t>
           </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t> Viet Quang - 20215235</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1600">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1929,8 +1917,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A13" zoomScale="102" zoomScaleNormal="99" zoomScaleSheetLayoutView="88" zoomScalePageLayoutView="102" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView view="pageLayout" zoomScale="59" zoomScaleNormal="99" zoomScaleSheetLayoutView="88" zoomScalePageLayoutView="59" workbookViewId="0">
+      <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2208,7 +2196,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScaleNormal="100" zoomScaleSheetLayoutView="88" workbookViewId="0">
+    <sheetView view="pageLayout" topLeftCell="A3" zoomScaleNormal="100" zoomScaleSheetLayoutView="88" workbookViewId="0">
       <selection activeCell="A3" sqref="A3:H11"/>
     </sheetView>
   </sheetViews>
@@ -2705,7 +2693,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A9" zoomScaleNormal="100" zoomScaleSheetLayoutView="88" workbookViewId="0">
+    <sheetView view="pageLayout" zoomScaleNormal="100" zoomScaleSheetLayoutView="88" workbookViewId="0">
       <selection activeCell="A3" sqref="A3:H11"/>
     </sheetView>
   </sheetViews>
@@ -3459,7 +3447,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8917CA0A-EA61-4F09-84F9-F925FF2C64CE}">
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="B4" zoomScale="130" zoomScaleNormal="100" zoomScalePageLayoutView="130" workbookViewId="0">
+    <sheetView view="pageLayout" zoomScale="130" zoomScaleNormal="100" zoomScalePageLayoutView="130" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -3490,11 +3478,11 @@
       <c r="B3" s="40"/>
     </row>
     <row r="4" spans="1:8" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="64"/>
-      <c r="C4" s="65"/>
+      <c r="B4" s="58"/>
+      <c r="C4" s="59"/>
       <c r="D4" s="33" t="s">
         <v>30</v>
       </c>
@@ -3787,15 +3775,15 @@
       <c r="B21" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="C21" s="52" t="s">
+      <c r="C21" s="60" t="s">
         <v>47</v>
       </c>
-      <c r="D21" s="53"/>
-      <c r="E21" s="54"/>
-      <c r="F21" s="52" t="s">
+      <c r="D21" s="61"/>
+      <c r="E21" s="62"/>
+      <c r="F21" s="60" t="s">
         <v>48</v>
       </c>
-      <c r="G21" s="54"/>
+      <c r="G21" s="62"/>
     </row>
     <row r="22" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="16" t="s">
@@ -3804,15 +3792,15 @@
       <c r="B22" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="C22" s="60" t="s">
+      <c r="C22" s="52" t="s">
         <v>85</v>
       </c>
-      <c r="D22" s="61"/>
-      <c r="E22" s="62"/>
-      <c r="F22" s="58" t="s">
+      <c r="D22" s="53"/>
+      <c r="E22" s="54"/>
+      <c r="F22" s="55" t="s">
         <v>134</v>
       </c>
-      <c r="G22" s="59"/>
+      <c r="G22" s="56"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="21"/>
@@ -3835,15 +3823,15 @@
       <c r="B25" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="C25" s="52" t="s">
+      <c r="C25" s="60" t="s">
         <v>47</v>
       </c>
-      <c r="D25" s="53"/>
-      <c r="E25" s="54"/>
-      <c r="F25" s="52" t="s">
+      <c r="D25" s="61"/>
+      <c r="E25" s="62"/>
+      <c r="F25" s="60" t="s">
         <v>48</v>
       </c>
-      <c r="G25" s="54"/>
+      <c r="G25" s="62"/>
     </row>
     <row r="26" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="16" t="s">
@@ -3852,15 +3840,15 @@
       <c r="B26" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="C26" s="60" t="s">
+      <c r="C26" s="52" t="s">
         <v>93</v>
       </c>
-      <c r="D26" s="61"/>
-      <c r="E26" s="62"/>
-      <c r="F26" s="58" t="s">
+      <c r="D26" s="53"/>
+      <c r="E26" s="54"/>
+      <c r="F26" s="55" t="s">
         <v>135</v>
       </c>
-      <c r="G26" s="59"/>
+      <c r="G26" s="56"/>
     </row>
     <row r="27" spans="1:8" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="16" t="s">
@@ -3869,15 +3857,15 @@
       <c r="B27" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="C27" s="60" t="s">
+      <c r="C27" s="52" t="s">
         <v>88</v>
       </c>
-      <c r="D27" s="61"/>
-      <c r="E27" s="62"/>
-      <c r="F27" s="58" t="s">
+      <c r="D27" s="53"/>
+      <c r="E27" s="54"/>
+      <c r="F27" s="55" t="s">
         <v>136</v>
       </c>
-      <c r="G27" s="59"/>
+      <c r="G27" s="56"/>
     </row>
     <row r="28" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="21"/>
@@ -3900,15 +3888,15 @@
       <c r="B30" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="C30" s="52" t="s">
+      <c r="C30" s="60" t="s">
         <v>47</v>
       </c>
-      <c r="D30" s="53"/>
-      <c r="E30" s="54"/>
-      <c r="F30" s="52" t="s">
+      <c r="D30" s="61"/>
+      <c r="E30" s="62"/>
+      <c r="F30" s="60" t="s">
         <v>48</v>
       </c>
-      <c r="G30" s="54"/>
+      <c r="G30" s="62"/>
     </row>
     <row r="31" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="16" t="s">
@@ -3917,18 +3905,24 @@
       <c r="B31" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="C31" s="55" t="s">
+      <c r="C31" s="63" t="s">
         <v>98</v>
       </c>
-      <c r="D31" s="56"/>
-      <c r="E31" s="57"/>
-      <c r="F31" s="58" t="s">
+      <c r="D31" s="64"/>
+      <c r="E31" s="65"/>
+      <c r="F31" s="55" t="s">
         <v>137</v>
       </c>
-      <c r="G31" s="59"/>
+      <c r="G31" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="F27:G27"/>
     <mergeCell ref="C26:E26"/>
     <mergeCell ref="F26:G26"/>
     <mergeCell ref="A4:C4"/>
@@ -3938,12 +3932,6 @@
     <mergeCell ref="F21:G21"/>
     <mergeCell ref="C22:E22"/>
     <mergeCell ref="F22:G22"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="F27:G27"/>
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="1.1811023622047243" right="0.78740157480314965" top="0.78740157480314965" bottom="0.78740157480314965" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -3955,8 +3943,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4718D1D-4F97-4C92-8AD5-0F4CAB008D82}">
   <dimension ref="A1:J125"/>
   <sheetViews>
-    <sheetView showWhiteSpace="0" view="pageLayout" topLeftCell="A15" zoomScale="63" zoomScaleNormal="85" zoomScalePageLayoutView="63" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" topLeftCell="A106" zoomScale="63" zoomScaleNormal="85" zoomScalePageLayoutView="63" workbookViewId="0">
+      <selection activeCell="F142" sqref="F142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3981,17 +3969,17 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="66" t="s">
+      <c r="A3" s="81" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="67"/>
+      <c r="B3" s="82"/>
       <c r="C3" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="66" t="s">
+      <c r="D3" s="81" t="s">
         <v>52</v>
       </c>
-      <c r="E3" s="67"/>
+      <c r="E3" s="82"/>
       <c r="F3" s="24" t="s">
         <v>95</v>
       </c>
@@ -4001,21 +3989,21 @@
       <c r="J3" s="25"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="66" t="s">
+      <c r="A4" s="81" t="s">
         <v>53</v>
       </c>
-      <c r="B4" s="67"/>
+      <c r="B4" s="82"/>
       <c r="C4" s="24" t="s">
         <v>139</v>
       </c>
-      <c r="D4" s="66" t="s">
+      <c r="D4" s="81" t="s">
         <v>54</v>
       </c>
-      <c r="E4" s="67"/>
-      <c r="F4" s="68" t="s">
+      <c r="E4" s="82"/>
+      <c r="F4" s="71" t="s">
         <v>100</v>
       </c>
-      <c r="G4" s="68"/>
+      <c r="G4" s="71"/>
       <c r="H4" s="26" t="s">
         <v>55</v>
       </c>
@@ -4037,10 +4025,10 @@
       <c r="J5" s="25"/>
     </row>
     <row r="6" spans="1:10" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="71" t="s">
+      <c r="A6" s="84" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="72"/>
+      <c r="B6" s="85"/>
       <c r="C6" s="24" t="s">
         <v>58</v>
       </c>
@@ -4065,21 +4053,21 @@
       <c r="J7" s="25"/>
     </row>
     <row r="8" spans="1:10" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="73" t="s">
+      <c r="A8" s="86" t="s">
         <v>59</v>
       </c>
-      <c r="B8" s="72"/>
+      <c r="B8" s="85"/>
       <c r="C8" s="24" t="s">
         <v>139</v>
       </c>
-      <c r="D8" s="73" t="s">
+      <c r="D8" s="86" t="s">
         <v>60</v>
       </c>
-      <c r="E8" s="72"/>
-      <c r="F8" s="74" t="s">
-        <v>140</v>
-      </c>
-      <c r="G8" s="75"/>
+      <c r="E8" s="85"/>
+      <c r="F8" s="88" t="s">
+        <v>148</v>
+      </c>
+      <c r="G8" s="89"/>
       <c r="H8" s="26" t="s">
         <v>61</v>
       </c>
@@ -4100,25 +4088,25 @@
       <c r="A10" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="B10" s="76" t="s">
+      <c r="B10" s="79" t="s">
         <v>64</v>
       </c>
-      <c r="C10" s="76"/>
-      <c r="D10" s="76"/>
-      <c r="E10" s="76"/>
-      <c r="F10" s="76"/>
+      <c r="C10" s="79"/>
+      <c r="D10" s="79"/>
+      <c r="E10" s="79"/>
+      <c r="F10" s="79"/>
     </row>
     <row r="11" spans="1:10" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="30">
         <v>1</v>
       </c>
-      <c r="B11" s="70" t="s">
+      <c r="B11" s="66" t="s">
         <v>104</v>
       </c>
-      <c r="C11" s="70"/>
-      <c r="D11" s="70"/>
-      <c r="E11" s="70"/>
-      <c r="F11" s="70"/>
+      <c r="C11" s="66"/>
+      <c r="D11" s="66"/>
+      <c r="E11" s="66"/>
+      <c r="F11" s="66"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="25"/>
@@ -4136,15 +4124,15 @@
       <c r="A13" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="B13" s="69" t="s">
+      <c r="B13" s="80" t="s">
         <v>65</v>
       </c>
-      <c r="C13" s="69"/>
-      <c r="D13" s="69" t="s">
+      <c r="C13" s="80"/>
+      <c r="D13" s="80" t="s">
         <v>66</v>
       </c>
-      <c r="E13" s="69"/>
-      <c r="F13" s="69"/>
+      <c r="E13" s="80"/>
+      <c r="F13" s="80"/>
       <c r="G13" s="25"/>
       <c r="H13" s="25"/>
       <c r="I13" s="25"/>
@@ -4154,11 +4142,11 @@
       <c r="A14" s="30">
         <v>1</v>
       </c>
-      <c r="B14" s="70"/>
-      <c r="C14" s="70"/>
-      <c r="D14" s="70"/>
-      <c r="E14" s="70"/>
-      <c r="F14" s="70"/>
+      <c r="B14" s="66"/>
+      <c r="C14" s="66"/>
+      <c r="D14" s="66"/>
+      <c r="E14" s="66"/>
+      <c r="F14" s="66"/>
       <c r="G14" s="25"/>
       <c r="H14" s="25"/>
       <c r="I14" s="25"/>
@@ -4168,11 +4156,11 @@
       <c r="A15" s="30">
         <v>2</v>
       </c>
-      <c r="B15" s="70"/>
-      <c r="C15" s="70"/>
-      <c r="D15" s="79"/>
-      <c r="E15" s="79"/>
-      <c r="F15" s="79"/>
+      <c r="B15" s="66"/>
+      <c r="C15" s="66"/>
+      <c r="D15" s="90"/>
+      <c r="E15" s="90"/>
+      <c r="F15" s="90"/>
       <c r="G15" s="25"/>
       <c r="H15" s="25"/>
       <c r="I15" s="25"/>
@@ -4182,11 +4170,11 @@
       <c r="A16" s="30">
         <v>3</v>
       </c>
-      <c r="B16" s="70"/>
-      <c r="C16" s="70"/>
-      <c r="D16" s="70"/>
-      <c r="E16" s="70"/>
-      <c r="F16" s="70"/>
+      <c r="B16" s="66"/>
+      <c r="C16" s="66"/>
+      <c r="D16" s="66"/>
+      <c r="E16" s="66"/>
+      <c r="F16" s="66"/>
       <c r="G16" s="25"/>
       <c r="H16" s="25"/>
       <c r="I16" s="25"/>
@@ -4194,21 +4182,21 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="32"/>
-      <c r="B17" s="68"/>
-      <c r="C17" s="68"/>
-      <c r="D17" s="68"/>
-      <c r="E17" s="68"/>
-      <c r="F17" s="68"/>
+      <c r="B17" s="71"/>
+      <c r="C17" s="71"/>
+      <c r="D17" s="71"/>
+      <c r="E17" s="71"/>
+      <c r="F17" s="71"/>
       <c r="G17" s="24"/>
       <c r="H17" s="24"/>
       <c r="I17" s="24"/>
       <c r="J17" s="24"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="78" t="s">
+      <c r="A18" s="72" t="s">
         <v>68</v>
       </c>
-      <c r="B18" s="78"/>
+      <c r="B18" s="72"/>
       <c r="C18" s="24" t="s">
         <v>69</v>
       </c>
@@ -4224,82 +4212,82 @@
       <c r="C19" s="32"/>
     </row>
     <row r="20" spans="1:10" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="80" t="s">
+      <c r="A20" s="70" t="s">
         <v>70</v>
       </c>
-      <c r="B20" s="80" t="s">
+      <c r="B20" s="70" t="s">
         <v>71</v>
       </c>
-      <c r="C20" s="82"/>
-      <c r="D20" s="84" t="s">
+      <c r="C20" s="73"/>
+      <c r="D20" s="75" t="s">
         <v>72</v>
       </c>
-      <c r="E20" s="85"/>
-      <c r="F20" s="77" t="s">
+      <c r="E20" s="76"/>
+      <c r="F20" s="78" t="s">
         <v>73</v>
       </c>
-      <c r="G20" s="77"/>
-      <c r="H20" s="80" t="s">
+      <c r="G20" s="78"/>
+      <c r="H20" s="70" t="s">
         <v>74</v>
       </c>
-      <c r="I20" s="80"/>
-      <c r="J20" s="80"/>
+      <c r="I20" s="70"/>
+      <c r="J20" s="70"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="82"/>
-      <c r="B21" s="83"/>
-      <c r="C21" s="83"/>
-      <c r="D21" s="86"/>
-      <c r="E21" s="86"/>
-      <c r="F21" s="77"/>
-      <c r="G21" s="77"/>
-      <c r="H21" s="80"/>
-      <c r="I21" s="80"/>
-      <c r="J21" s="80"/>
+      <c r="A21" s="73"/>
+      <c r="B21" s="74"/>
+      <c r="C21" s="74"/>
+      <c r="D21" s="77"/>
+      <c r="E21" s="77"/>
+      <c r="F21" s="78"/>
+      <c r="G21" s="78"/>
+      <c r="H21" s="70"/>
+      <c r="I21" s="70"/>
+      <c r="J21" s="70"/>
     </row>
     <row r="22" spans="1:10" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="30">
         <v>1</v>
       </c>
-      <c r="B22" s="70" t="s">
+      <c r="B22" s="66" t="s">
         <v>101</v>
       </c>
-      <c r="C22" s="81"/>
-      <c r="D22" s="70" t="s">
+      <c r="C22" s="67"/>
+      <c r="D22" s="66" t="s">
         <v>99</v>
       </c>
-      <c r="E22" s="70"/>
-      <c r="F22" s="70" t="s">
+      <c r="E22" s="66"/>
+      <c r="F22" s="66" t="s">
         <v>75</v>
       </c>
-      <c r="G22" s="70"/>
-      <c r="H22" s="70" t="s">
+      <c r="G22" s="66"/>
+      <c r="H22" s="66" t="s">
         <v>62</v>
       </c>
-      <c r="I22" s="70"/>
-      <c r="J22" s="70"/>
+      <c r="I22" s="66"/>
+      <c r="J22" s="66"/>
     </row>
     <row r="23" spans="1:10" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="30">
         <v>2</v>
       </c>
-      <c r="B23" s="70" t="s">
+      <c r="B23" s="66" t="s">
         <v>102</v>
       </c>
-      <c r="C23" s="81"/>
-      <c r="D23" s="70" t="s">
+      <c r="C23" s="67"/>
+      <c r="D23" s="66" t="s">
         <v>103</v>
       </c>
-      <c r="E23" s="70"/>
-      <c r="F23" s="70" t="s">
+      <c r="E23" s="66"/>
+      <c r="F23" s="66" t="s">
         <v>75</v>
       </c>
-      <c r="G23" s="70"/>
-      <c r="H23" s="70" t="s">
+      <c r="G23" s="66"/>
+      <c r="H23" s="66" t="s">
         <v>62</v>
       </c>
-      <c r="I23" s="70"/>
-      <c r="J23" s="70"/>
+      <c r="I23" s="66"/>
+      <c r="J23" s="66"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="23" t="s">
@@ -4307,17 +4295,17 @@
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="66" t="s">
+      <c r="A27" s="81" t="s">
         <v>35</v>
       </c>
-      <c r="B27" s="67"/>
+      <c r="B27" s="82"/>
       <c r="C27" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="D27" s="66" t="s">
+      <c r="D27" s="81" t="s">
         <v>52</v>
       </c>
-      <c r="E27" s="67"/>
+      <c r="E27" s="82"/>
       <c r="F27" s="24" t="s">
         <v>123</v>
       </c>
@@ -4327,21 +4315,21 @@
       <c r="J27" s="25"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="66" t="s">
+      <c r="A28" s="81" t="s">
         <v>53</v>
       </c>
-      <c r="B28" s="67"/>
+      <c r="B28" s="82"/>
       <c r="C28" s="24" t="s">
-        <v>139</v>
-      </c>
-      <c r="D28" s="66" t="s">
+        <v>144</v>
+      </c>
+      <c r="D28" s="81" t="s">
         <v>54</v>
       </c>
-      <c r="E28" s="67"/>
-      <c r="F28" s="87" t="s">
+      <c r="E28" s="82"/>
+      <c r="F28" s="83" t="s">
         <v>100</v>
       </c>
-      <c r="G28" s="87"/>
+      <c r="G28" s="83"/>
       <c r="H28" s="26" t="s">
         <v>55</v>
       </c>
@@ -4363,10 +4351,10 @@
       <c r="J29" s="25"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A30" s="71" t="s">
+      <c r="A30" s="84" t="s">
         <v>57</v>
       </c>
-      <c r="B30" s="72"/>
+      <c r="B30" s="85"/>
       <c r="C30" s="24"/>
       <c r="D30" s="28"/>
       <c r="E30" s="28"/>
@@ -4389,21 +4377,21 @@
       <c r="J31" s="25"/>
     </row>
     <row r="32" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="73" t="s">
+      <c r="A32" s="86" t="s">
         <v>59</v>
       </c>
-      <c r="B32" s="72"/>
+      <c r="B32" s="85"/>
       <c r="C32" s="24" t="s">
-        <v>139</v>
-      </c>
-      <c r="D32" s="73" t="s">
+        <v>144</v>
+      </c>
+      <c r="D32" s="86" t="s">
         <v>60</v>
       </c>
-      <c r="E32" s="72"/>
-      <c r="F32" s="74" t="s">
-        <v>140</v>
-      </c>
-      <c r="G32" s="75"/>
+      <c r="E32" s="85"/>
+      <c r="F32" s="88" t="s">
+        <v>148</v>
+      </c>
+      <c r="G32" s="89"/>
       <c r="H32" s="26" t="s">
         <v>61</v>
       </c>
@@ -4424,25 +4412,25 @@
       <c r="A34" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="B34" s="76" t="s">
+      <c r="B34" s="79" t="s">
         <v>64</v>
       </c>
-      <c r="C34" s="76"/>
-      <c r="D34" s="76"/>
-      <c r="E34" s="76"/>
-      <c r="F34" s="76"/>
+      <c r="C34" s="79"/>
+      <c r="D34" s="79"/>
+      <c r="E34" s="79"/>
+      <c r="F34" s="79"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="30">
         <v>1</v>
       </c>
-      <c r="B35" s="70" t="s">
+      <c r="B35" s="66" t="s">
         <v>105</v>
       </c>
-      <c r="C35" s="70"/>
-      <c r="D35" s="70"/>
-      <c r="E35" s="70"/>
-      <c r="F35" s="70"/>
+      <c r="C35" s="66"/>
+      <c r="D35" s="66"/>
+      <c r="E35" s="66"/>
+      <c r="F35" s="66"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="25"/>
@@ -4460,15 +4448,15 @@
       <c r="A37" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="B37" s="69" t="s">
+      <c r="B37" s="80" t="s">
         <v>65</v>
       </c>
-      <c r="C37" s="69"/>
-      <c r="D37" s="69" t="s">
+      <c r="C37" s="80"/>
+      <c r="D37" s="80" t="s">
         <v>66</v>
       </c>
-      <c r="E37" s="69"/>
-      <c r="F37" s="69"/>
+      <c r="E37" s="80"/>
+      <c r="F37" s="80"/>
       <c r="G37" s="25"/>
       <c r="H37" s="25"/>
       <c r="I37" s="25"/>
@@ -4478,11 +4466,11 @@
       <c r="A38" s="30">
         <v>1</v>
       </c>
-      <c r="B38" s="70"/>
-      <c r="C38" s="70"/>
-      <c r="D38" s="70"/>
-      <c r="E38" s="70"/>
-      <c r="F38" s="70"/>
+      <c r="B38" s="66"/>
+      <c r="C38" s="66"/>
+      <c r="D38" s="66"/>
+      <c r="E38" s="66"/>
+      <c r="F38" s="66"/>
       <c r="G38" s="25"/>
       <c r="H38" s="25"/>
       <c r="I38" s="25"/>
@@ -4490,21 +4478,21 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="32"/>
-      <c r="B39" s="68"/>
-      <c r="C39" s="68"/>
-      <c r="D39" s="68"/>
-      <c r="E39" s="68"/>
-      <c r="F39" s="68"/>
+      <c r="B39" s="71"/>
+      <c r="C39" s="71"/>
+      <c r="D39" s="71"/>
+      <c r="E39" s="71"/>
+      <c r="F39" s="71"/>
       <c r="G39" s="24"/>
       <c r="H39" s="24"/>
       <c r="I39" s="24"/>
       <c r="J39" s="24"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A40" s="78" t="s">
+      <c r="A40" s="72" t="s">
         <v>68</v>
       </c>
-      <c r="B40" s="78"/>
+      <c r="B40" s="72"/>
       <c r="C40" s="24"/>
       <c r="D40" s="25"/>
       <c r="E40" s="25"/>
@@ -4518,82 +4506,82 @@
       <c r="C41" s="32"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A42" s="80" t="s">
+      <c r="A42" s="70" t="s">
         <v>70</v>
       </c>
-      <c r="B42" s="80" t="s">
+      <c r="B42" s="70" t="s">
         <v>71</v>
       </c>
-      <c r="C42" s="82"/>
-      <c r="D42" s="84" t="s">
+      <c r="C42" s="73"/>
+      <c r="D42" s="75" t="s">
         <v>72</v>
       </c>
-      <c r="E42" s="85"/>
-      <c r="F42" s="77" t="s">
+      <c r="E42" s="76"/>
+      <c r="F42" s="78" t="s">
         <v>73</v>
       </c>
-      <c r="G42" s="77"/>
-      <c r="H42" s="80" t="s">
+      <c r="G42" s="78"/>
+      <c r="H42" s="70" t="s">
         <v>74</v>
       </c>
-      <c r="I42" s="80"/>
-      <c r="J42" s="80"/>
+      <c r="I42" s="70"/>
+      <c r="J42" s="70"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A43" s="82"/>
-      <c r="B43" s="83"/>
-      <c r="C43" s="83"/>
-      <c r="D43" s="86"/>
-      <c r="E43" s="86"/>
-      <c r="F43" s="77"/>
-      <c r="G43" s="77"/>
-      <c r="H43" s="80"/>
-      <c r="I43" s="80"/>
-      <c r="J43" s="80"/>
+      <c r="A43" s="73"/>
+      <c r="B43" s="74"/>
+      <c r="C43" s="74"/>
+      <c r="D43" s="77"/>
+      <c r="E43" s="77"/>
+      <c r="F43" s="78"/>
+      <c r="G43" s="78"/>
+      <c r="H43" s="70"/>
+      <c r="I43" s="70"/>
+      <c r="J43" s="70"/>
     </row>
     <row r="44" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="30">
         <v>1</v>
       </c>
-      <c r="B44" s="70" t="s">
+      <c r="B44" s="66" t="s">
         <v>101</v>
       </c>
-      <c r="C44" s="81"/>
-      <c r="D44" s="70" t="s">
+      <c r="C44" s="67"/>
+      <c r="D44" s="66" t="s">
         <v>99</v>
       </c>
-      <c r="E44" s="70"/>
-      <c r="F44" s="70" t="s">
+      <c r="E44" s="66"/>
+      <c r="F44" s="66" t="s">
         <v>75</v>
       </c>
-      <c r="G44" s="70"/>
-      <c r="H44" s="70" t="s">
+      <c r="G44" s="66"/>
+      <c r="H44" s="66" t="s">
         <v>62</v>
       </c>
-      <c r="I44" s="70"/>
-      <c r="J44" s="70"/>
+      <c r="I44" s="66"/>
+      <c r="J44" s="66"/>
     </row>
     <row r="45" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="30">
         <v>2</v>
       </c>
-      <c r="B45" s="70" t="s">
+      <c r="B45" s="66" t="s">
         <v>102</v>
       </c>
-      <c r="C45" s="81"/>
-      <c r="D45" s="70" t="s">
+      <c r="C45" s="67"/>
+      <c r="D45" s="66" t="s">
         <v>106</v>
       </c>
-      <c r="E45" s="70"/>
-      <c r="F45" s="70" t="s">
+      <c r="E45" s="66"/>
+      <c r="F45" s="66" t="s">
         <v>75</v>
       </c>
-      <c r="G45" s="70"/>
-      <c r="H45" s="70" t="s">
+      <c r="G45" s="66"/>
+      <c r="H45" s="66" t="s">
         <v>62</v>
       </c>
-      <c r="I45" s="70"/>
-      <c r="J45" s="70"/>
+      <c r="I45" s="66"/>
+      <c r="J45" s="66"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="23" t="s">
@@ -4601,17 +4589,17 @@
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A49" s="66" t="s">
+      <c r="A49" s="81" t="s">
         <v>35</v>
       </c>
-      <c r="B49" s="67"/>
+      <c r="B49" s="82"/>
       <c r="C49" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="D49" s="66" t="s">
+      <c r="D49" s="81" t="s">
         <v>52</v>
       </c>
-      <c r="E49" s="67"/>
+      <c r="E49" s="82"/>
       <c r="F49" s="24" t="s">
         <v>107</v>
       </c>
@@ -4621,21 +4609,21 @@
       <c r="J49" s="25"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A50" s="66" t="s">
+      <c r="A50" s="81" t="s">
         <v>53</v>
       </c>
-      <c r="B50" s="67"/>
+      <c r="B50" s="82"/>
       <c r="C50" s="42" t="s">
-        <v>139</v>
-      </c>
-      <c r="D50" s="66" t="s">
+        <v>145</v>
+      </c>
+      <c r="D50" s="81" t="s">
         <v>54</v>
       </c>
-      <c r="E50" s="67"/>
-      <c r="F50" s="87" t="s">
+      <c r="E50" s="82"/>
+      <c r="F50" s="83" t="s">
         <v>100</v>
       </c>
-      <c r="G50" s="87"/>
+      <c r="G50" s="83"/>
       <c r="H50" s="26" t="s">
         <v>55</v>
       </c>
@@ -4657,10 +4645,10 @@
       <c r="J51" s="25"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A52" s="71" t="s">
+      <c r="A52" s="84" t="s">
         <v>57</v>
       </c>
-      <c r="B52" s="72"/>
+      <c r="B52" s="85"/>
       <c r="C52" s="24"/>
       <c r="D52" s="28"/>
       <c r="E52" s="28"/>
@@ -4683,21 +4671,21 @@
       <c r="J53" s="25"/>
     </row>
     <row r="54" spans="1:10" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="73" t="s">
+      <c r="A54" s="86" t="s">
         <v>59</v>
       </c>
-      <c r="B54" s="72"/>
+      <c r="B54" s="85"/>
       <c r="C54" s="42" t="s">
-        <v>139</v>
-      </c>
-      <c r="D54" s="73" t="s">
+        <v>145</v>
+      </c>
+      <c r="D54" s="86" t="s">
         <v>60</v>
       </c>
-      <c r="E54" s="72"/>
-      <c r="F54" s="74" t="s">
-        <v>140</v>
-      </c>
-      <c r="G54" s="75"/>
+      <c r="E54" s="85"/>
+      <c r="F54" s="88" t="s">
+        <v>148</v>
+      </c>
+      <c r="G54" s="89"/>
       <c r="H54" s="26" t="s">
         <v>61</v>
       </c>
@@ -4718,25 +4706,25 @@
       <c r="A56" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="B56" s="76" t="s">
+      <c r="B56" s="79" t="s">
         <v>64</v>
       </c>
-      <c r="C56" s="76"/>
-      <c r="D56" s="76"/>
-      <c r="E56" s="76"/>
-      <c r="F56" s="76"/>
+      <c r="C56" s="79"/>
+      <c r="D56" s="79"/>
+      <c r="E56" s="79"/>
+      <c r="F56" s="79"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" s="30">
         <v>1</v>
       </c>
-      <c r="B57" s="70" t="s">
+      <c r="B57" s="66" t="s">
         <v>108</v>
       </c>
-      <c r="C57" s="70"/>
-      <c r="D57" s="70"/>
-      <c r="E57" s="70"/>
-      <c r="F57" s="70"/>
+      <c r="C57" s="66"/>
+      <c r="D57" s="66"/>
+      <c r="E57" s="66"/>
+      <c r="F57" s="66"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" s="25"/>
@@ -4754,15 +4742,15 @@
       <c r="A59" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="B59" s="69" t="s">
+      <c r="B59" s="80" t="s">
         <v>65</v>
       </c>
-      <c r="C59" s="69"/>
-      <c r="D59" s="69" t="s">
+      <c r="C59" s="80"/>
+      <c r="D59" s="80" t="s">
         <v>66</v>
       </c>
-      <c r="E59" s="69"/>
-      <c r="F59" s="69"/>
+      <c r="E59" s="80"/>
+      <c r="F59" s="80"/>
       <c r="G59" s="25"/>
       <c r="H59" s="25"/>
       <c r="I59" s="25"/>
@@ -4772,15 +4760,15 @@
       <c r="A60" s="30">
         <v>1</v>
       </c>
-      <c r="B60" s="70" t="s">
+      <c r="B60" s="66" t="s">
         <v>112</v>
       </c>
-      <c r="C60" s="70"/>
-      <c r="D60" s="70" t="s">
+      <c r="C60" s="66"/>
+      <c r="D60" s="66" t="s">
         <v>139</v>
       </c>
-      <c r="E60" s="70"/>
-      <c r="F60" s="70"/>
+      <c r="E60" s="66"/>
+      <c r="F60" s="66"/>
       <c r="G60" s="25"/>
       <c r="H60" s="25"/>
       <c r="I60" s="25"/>
@@ -4790,15 +4778,15 @@
       <c r="A61" s="30">
         <v>2</v>
       </c>
-      <c r="B61" s="70" t="s">
+      <c r="B61" s="66" t="s">
         <v>67</v>
       </c>
-      <c r="C61" s="70"/>
-      <c r="D61" s="88" t="s">
-        <v>141</v>
-      </c>
-      <c r="E61" s="70"/>
-      <c r="F61" s="70"/>
+      <c r="C61" s="66"/>
+      <c r="D61" s="87" t="s">
+        <v>140</v>
+      </c>
+      <c r="E61" s="66"/>
+      <c r="F61" s="66"/>
       <c r="G61" s="25"/>
       <c r="H61" s="25"/>
       <c r="I61" s="25"/>
@@ -4808,15 +4796,15 @@
       <c r="A62" s="30">
         <v>3</v>
       </c>
-      <c r="B62" s="70" t="s">
+      <c r="B62" s="66" t="s">
         <v>77</v>
       </c>
-      <c r="C62" s="70"/>
-      <c r="D62" s="70" t="s">
-        <v>142</v>
-      </c>
-      <c r="E62" s="70"/>
-      <c r="F62" s="70"/>
+      <c r="C62" s="66"/>
+      <c r="D62" s="66" t="s">
+        <v>141</v>
+      </c>
+      <c r="E62" s="66"/>
+      <c r="F62" s="66"/>
       <c r="G62" s="25"/>
       <c r="H62" s="25"/>
       <c r="I62" s="25"/>
@@ -4826,15 +4814,15 @@
       <c r="A63" s="30">
         <v>4</v>
       </c>
-      <c r="B63" s="70" t="s">
+      <c r="B63" s="66" t="s">
         <v>76</v>
       </c>
-      <c r="C63" s="70"/>
-      <c r="D63" s="70" t="s">
-        <v>143</v>
-      </c>
-      <c r="E63" s="70"/>
-      <c r="F63" s="70"/>
+      <c r="C63" s="66"/>
+      <c r="D63" s="66" t="s">
+        <v>142</v>
+      </c>
+      <c r="E63" s="66"/>
+      <c r="F63" s="66"/>
       <c r="G63" s="25"/>
       <c r="H63" s="25"/>
       <c r="I63" s="25"/>
@@ -4842,21 +4830,21 @@
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" s="32"/>
-      <c r="B64" s="68"/>
-      <c r="C64" s="68"/>
-      <c r="D64" s="68"/>
-      <c r="E64" s="68"/>
-      <c r="F64" s="68"/>
+      <c r="B64" s="71"/>
+      <c r="C64" s="71"/>
+      <c r="D64" s="71"/>
+      <c r="E64" s="71"/>
+      <c r="F64" s="71"/>
       <c r="G64" s="24"/>
       <c r="H64" s="24"/>
       <c r="I64" s="24"/>
       <c r="J64" s="24"/>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A65" s="78" t="s">
+      <c r="A65" s="72" t="s">
         <v>68</v>
       </c>
-      <c r="B65" s="78"/>
+      <c r="B65" s="72"/>
       <c r="C65" s="24"/>
       <c r="D65" s="25"/>
       <c r="E65" s="25"/>
@@ -4870,104 +4858,104 @@
       <c r="C66" s="32"/>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A67" s="80" t="s">
+      <c r="A67" s="70" t="s">
         <v>70</v>
       </c>
-      <c r="B67" s="80" t="s">
+      <c r="B67" s="70" t="s">
         <v>71</v>
       </c>
-      <c r="C67" s="82"/>
-      <c r="D67" s="84" t="s">
+      <c r="C67" s="73"/>
+      <c r="D67" s="75" t="s">
         <v>72</v>
       </c>
-      <c r="E67" s="85"/>
-      <c r="F67" s="77" t="s">
+      <c r="E67" s="76"/>
+      <c r="F67" s="78" t="s">
         <v>73</v>
       </c>
-      <c r="G67" s="77"/>
-      <c r="H67" s="80" t="s">
+      <c r="G67" s="78"/>
+      <c r="H67" s="70" t="s">
         <v>74</v>
       </c>
-      <c r="I67" s="80"/>
-      <c r="J67" s="80"/>
+      <c r="I67" s="70"/>
+      <c r="J67" s="70"/>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A68" s="82"/>
-      <c r="B68" s="83"/>
-      <c r="C68" s="83"/>
-      <c r="D68" s="86"/>
-      <c r="E68" s="86"/>
-      <c r="F68" s="77"/>
-      <c r="G68" s="77"/>
-      <c r="H68" s="80"/>
-      <c r="I68" s="80"/>
-      <c r="J68" s="80"/>
+      <c r="A68" s="73"/>
+      <c r="B68" s="74"/>
+      <c r="C68" s="74"/>
+      <c r="D68" s="77"/>
+      <c r="E68" s="77"/>
+      <c r="F68" s="78"/>
+      <c r="G68" s="78"/>
+      <c r="H68" s="70"/>
+      <c r="I68" s="70"/>
+      <c r="J68" s="70"/>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" s="30">
         <v>1</v>
       </c>
-      <c r="B69" s="70" t="s">
+      <c r="B69" s="66" t="s">
         <v>101</v>
       </c>
-      <c r="C69" s="81"/>
-      <c r="D69" s="70" t="s">
+      <c r="C69" s="67"/>
+      <c r="D69" s="66" t="s">
         <v>99</v>
       </c>
-      <c r="E69" s="70"/>
-      <c r="F69" s="70" t="s">
+      <c r="E69" s="66"/>
+      <c r="F69" s="66" t="s">
         <v>75</v>
       </c>
-      <c r="G69" s="70"/>
-      <c r="H69" s="70" t="s">
+      <c r="G69" s="66"/>
+      <c r="H69" s="66" t="s">
         <v>62</v>
       </c>
-      <c r="I69" s="70"/>
-      <c r="J69" s="70"/>
+      <c r="I69" s="66"/>
+      <c r="J69" s="66"/>
     </row>
     <row r="70" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="30">
         <v>2</v>
       </c>
-      <c r="B70" s="70" t="s">
+      <c r="B70" s="66" t="s">
         <v>102</v>
       </c>
-      <c r="C70" s="81"/>
-      <c r="D70" s="70" t="s">
+      <c r="C70" s="67"/>
+      <c r="D70" s="66" t="s">
         <v>109</v>
       </c>
-      <c r="E70" s="70"/>
-      <c r="F70" s="70" t="s">
+      <c r="E70" s="66"/>
+      <c r="F70" s="66" t="s">
         <v>75</v>
       </c>
-      <c r="G70" s="70"/>
-      <c r="H70" s="70" t="s">
+      <c r="G70" s="66"/>
+      <c r="H70" s="66" t="s">
         <v>62</v>
       </c>
-      <c r="I70" s="70"/>
-      <c r="J70" s="70"/>
+      <c r="I70" s="66"/>
+      <c r="J70" s="66"/>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" s="30">
         <v>3</v>
       </c>
-      <c r="B71" s="70" t="s">
+      <c r="B71" s="66" t="s">
         <v>110</v>
       </c>
-      <c r="C71" s="81"/>
-      <c r="D71" s="70" t="s">
+      <c r="C71" s="67"/>
+      <c r="D71" s="66" t="s">
         <v>111</v>
       </c>
-      <c r="E71" s="70"/>
-      <c r="F71" s="70" t="s">
+      <c r="E71" s="66"/>
+      <c r="F71" s="66" t="s">
         <v>75</v>
       </c>
-      <c r="G71" s="70"/>
-      <c r="H71" s="70" t="s">
+      <c r="G71" s="66"/>
+      <c r="H71" s="66" t="s">
         <v>62</v>
       </c>
-      <c r="I71" s="70"/>
-      <c r="J71" s="70"/>
+      <c r="I71" s="66"/>
+      <c r="J71" s="66"/>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" s="23" t="s">
@@ -4975,17 +4963,17 @@
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A75" s="66" t="s">
+      <c r="A75" s="81" t="s">
         <v>35</v>
       </c>
-      <c r="B75" s="67"/>
+      <c r="B75" s="82"/>
       <c r="C75" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="D75" s="66" t="s">
+      <c r="D75" s="81" t="s">
         <v>52</v>
       </c>
-      <c r="E75" s="67"/>
+      <c r="E75" s="82"/>
       <c r="F75" s="24" t="s">
         <v>116</v>
       </c>
@@ -4995,21 +4983,21 @@
       <c r="J75" s="25"/>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A76" s="66" t="s">
+      <c r="A76" s="81" t="s">
         <v>53</v>
       </c>
-      <c r="B76" s="67"/>
+      <c r="B76" s="82"/>
       <c r="C76" s="42" t="s">
-        <v>139</v>
-      </c>
-      <c r="D76" s="66" t="s">
+        <v>146</v>
+      </c>
+      <c r="D76" s="81" t="s">
         <v>54</v>
       </c>
-      <c r="E76" s="67"/>
-      <c r="F76" s="87" t="s">
+      <c r="E76" s="82"/>
+      <c r="F76" s="83" t="s">
         <v>100</v>
       </c>
-      <c r="G76" s="87"/>
+      <c r="G76" s="83"/>
       <c r="H76" s="26" t="s">
         <v>55</v>
       </c>
@@ -5031,10 +5019,10 @@
       <c r="J77" s="25"/>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A78" s="71" t="s">
+      <c r="A78" s="84" t="s">
         <v>57</v>
       </c>
-      <c r="B78" s="72"/>
+      <c r="B78" s="85"/>
       <c r="C78" s="24"/>
       <c r="D78" s="28"/>
       <c r="E78" s="28"/>
@@ -5057,19 +5045,19 @@
       <c r="J79" s="25"/>
     </row>
     <row r="80" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="73" t="s">
+      <c r="A80" s="86" t="s">
         <v>59</v>
       </c>
-      <c r="B80" s="72"/>
+      <c r="B80" s="85"/>
       <c r="C80" s="42" t="s">
-        <v>139</v>
-      </c>
-      <c r="D80" s="73" t="s">
+        <v>146</v>
+      </c>
+      <c r="D80" s="86" t="s">
         <v>60</v>
       </c>
-      <c r="E80" s="72"/>
-      <c r="F80" s="89" t="s">
-        <v>140</v>
+      <c r="E80" s="85"/>
+      <c r="F80" s="88" t="s">
+        <v>148</v>
       </c>
       <c r="G80" s="89"/>
       <c r="H80" s="26" t="s">
@@ -5092,25 +5080,25 @@
       <c r="A82" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="B82" s="76" t="s">
+      <c r="B82" s="79" t="s">
         <v>64</v>
       </c>
-      <c r="C82" s="76"/>
-      <c r="D82" s="76"/>
-      <c r="E82" s="76"/>
-      <c r="F82" s="76"/>
+      <c r="C82" s="79"/>
+      <c r="D82" s="79"/>
+      <c r="E82" s="79"/>
+      <c r="F82" s="79"/>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83" s="30">
         <v>1</v>
       </c>
-      <c r="B83" s="70" t="s">
+      <c r="B83" s="66" t="s">
         <v>108</v>
       </c>
-      <c r="C83" s="70"/>
-      <c r="D83" s="70"/>
-      <c r="E83" s="70"/>
-      <c r="F83" s="70"/>
+      <c r="C83" s="66"/>
+      <c r="D83" s="66"/>
+      <c r="E83" s="66"/>
+      <c r="F83" s="66"/>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84" s="25"/>
@@ -5128,15 +5116,15 @@
       <c r="A85" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="B85" s="69" t="s">
+      <c r="B85" s="80" t="s">
         <v>65</v>
       </c>
-      <c r="C85" s="69"/>
-      <c r="D85" s="69" t="s">
+      <c r="C85" s="80"/>
+      <c r="D85" s="80" t="s">
         <v>66</v>
       </c>
-      <c r="E85" s="69"/>
-      <c r="F85" s="69"/>
+      <c r="E85" s="80"/>
+      <c r="F85" s="80"/>
       <c r="G85" s="25"/>
       <c r="H85" s="25"/>
       <c r="I85" s="25"/>
@@ -5146,11 +5134,11 @@
       <c r="A86" s="30">
         <v>1</v>
       </c>
-      <c r="B86" s="70"/>
-      <c r="C86" s="70"/>
-      <c r="D86" s="70"/>
-      <c r="E86" s="70"/>
-      <c r="F86" s="70"/>
+      <c r="B86" s="66"/>
+      <c r="C86" s="66"/>
+      <c r="D86" s="66"/>
+      <c r="E86" s="66"/>
+      <c r="F86" s="66"/>
       <c r="G86" s="25"/>
       <c r="H86" s="25"/>
       <c r="I86" s="25"/>
@@ -5160,11 +5148,11 @@
       <c r="A87" s="30">
         <v>2</v>
       </c>
-      <c r="B87" s="70"/>
-      <c r="C87" s="70"/>
-      <c r="D87" s="70"/>
-      <c r="E87" s="70"/>
-      <c r="F87" s="70"/>
+      <c r="B87" s="66"/>
+      <c r="C87" s="66"/>
+      <c r="D87" s="66"/>
+      <c r="E87" s="66"/>
+      <c r="F87" s="66"/>
       <c r="G87" s="25"/>
       <c r="H87" s="25"/>
       <c r="I87" s="25"/>
@@ -5174,11 +5162,11 @@
       <c r="A88" s="30">
         <v>3</v>
       </c>
-      <c r="B88" s="70"/>
-      <c r="C88" s="70"/>
-      <c r="D88" s="70"/>
-      <c r="E88" s="70"/>
-      <c r="F88" s="70"/>
+      <c r="B88" s="66"/>
+      <c r="C88" s="66"/>
+      <c r="D88" s="66"/>
+      <c r="E88" s="66"/>
+      <c r="F88" s="66"/>
       <c r="G88" s="25"/>
       <c r="H88" s="25"/>
       <c r="I88" s="25"/>
@@ -5188,11 +5176,11 @@
       <c r="A89" s="30">
         <v>4</v>
       </c>
-      <c r="B89" s="70"/>
-      <c r="C89" s="70"/>
-      <c r="D89" s="70"/>
-      <c r="E89" s="70"/>
-      <c r="F89" s="70"/>
+      <c r="B89" s="66"/>
+      <c r="C89" s="66"/>
+      <c r="D89" s="66"/>
+      <c r="E89" s="66"/>
+      <c r="F89" s="66"/>
       <c r="G89" s="25"/>
       <c r="H89" s="25"/>
       <c r="I89" s="25"/>
@@ -5200,21 +5188,21 @@
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90" s="32"/>
-      <c r="B90" s="68"/>
-      <c r="C90" s="68"/>
-      <c r="D90" s="68"/>
-      <c r="E90" s="68"/>
-      <c r="F90" s="68"/>
+      <c r="B90" s="71"/>
+      <c r="C90" s="71"/>
+      <c r="D90" s="71"/>
+      <c r="E90" s="71"/>
+      <c r="F90" s="71"/>
       <c r="G90" s="24"/>
       <c r="H90" s="24"/>
       <c r="I90" s="24"/>
       <c r="J90" s="24"/>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A91" s="78" t="s">
+      <c r="A91" s="72" t="s">
         <v>68</v>
       </c>
-      <c r="B91" s="78"/>
+      <c r="B91" s="72"/>
       <c r="C91" s="24"/>
       <c r="D91" s="25"/>
       <c r="E91" s="25"/>
@@ -5228,126 +5216,126 @@
       <c r="C92" s="32"/>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A93" s="80" t="s">
+      <c r="A93" s="70" t="s">
         <v>70</v>
       </c>
-      <c r="B93" s="80" t="s">
+      <c r="B93" s="70" t="s">
         <v>71</v>
       </c>
-      <c r="C93" s="82"/>
-      <c r="D93" s="84" t="s">
+      <c r="C93" s="73"/>
+      <c r="D93" s="75" t="s">
         <v>72</v>
       </c>
-      <c r="E93" s="85"/>
-      <c r="F93" s="77" t="s">
+      <c r="E93" s="76"/>
+      <c r="F93" s="78" t="s">
         <v>73</v>
       </c>
-      <c r="G93" s="77"/>
-      <c r="H93" s="80" t="s">
+      <c r="G93" s="78"/>
+      <c r="H93" s="70" t="s">
         <v>74</v>
       </c>
-      <c r="I93" s="80"/>
-      <c r="J93" s="80"/>
+      <c r="I93" s="70"/>
+      <c r="J93" s="70"/>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A94" s="82"/>
-      <c r="B94" s="83"/>
-      <c r="C94" s="83"/>
-      <c r="D94" s="86"/>
-      <c r="E94" s="86"/>
-      <c r="F94" s="77"/>
-      <c r="G94" s="77"/>
-      <c r="H94" s="80"/>
-      <c r="I94" s="80"/>
-      <c r="J94" s="80"/>
+      <c r="A94" s="73"/>
+      <c r="B94" s="74"/>
+      <c r="C94" s="74"/>
+      <c r="D94" s="77"/>
+      <c r="E94" s="77"/>
+      <c r="F94" s="78"/>
+      <c r="G94" s="78"/>
+      <c r="H94" s="70"/>
+      <c r="I94" s="70"/>
+      <c r="J94" s="70"/>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95" s="30">
         <v>1</v>
       </c>
-      <c r="B95" s="70" t="s">
+      <c r="B95" s="66" t="s">
         <v>101</v>
       </c>
-      <c r="C95" s="81"/>
-      <c r="D95" s="70" t="s">
+      <c r="C95" s="67"/>
+      <c r="D95" s="66" t="s">
         <v>99</v>
       </c>
-      <c r="E95" s="70"/>
-      <c r="F95" s="70" t="s">
+      <c r="E95" s="66"/>
+      <c r="F95" s="66" t="s">
         <v>75</v>
       </c>
-      <c r="G95" s="70"/>
-      <c r="H95" s="70" t="s">
+      <c r="G95" s="66"/>
+      <c r="H95" s="66" t="s">
         <v>62</v>
       </c>
-      <c r="I95" s="70"/>
-      <c r="J95" s="70"/>
+      <c r="I95" s="66"/>
+      <c r="J95" s="66"/>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96" s="30">
         <v>2</v>
       </c>
-      <c r="B96" s="70" t="s">
+      <c r="B96" s="66" t="s">
         <v>102</v>
       </c>
-      <c r="C96" s="81"/>
-      <c r="D96" s="70" t="s">
+      <c r="C96" s="67"/>
+      <c r="D96" s="66" t="s">
         <v>109</v>
       </c>
-      <c r="E96" s="70"/>
-      <c r="F96" s="70" t="s">
+      <c r="E96" s="66"/>
+      <c r="F96" s="66" t="s">
         <v>75</v>
       </c>
-      <c r="G96" s="70"/>
-      <c r="H96" s="70" t="s">
+      <c r="G96" s="66"/>
+      <c r="H96" s="66" t="s">
         <v>62</v>
       </c>
-      <c r="I96" s="70"/>
-      <c r="J96" s="70"/>
+      <c r="I96" s="66"/>
+      <c r="J96" s="66"/>
     </row>
     <row r="97" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="30">
         <v>3</v>
       </c>
-      <c r="B97" s="70" t="s">
+      <c r="B97" s="66" t="s">
         <v>110</v>
       </c>
-      <c r="C97" s="81"/>
-      <c r="D97" s="70" t="s">
+      <c r="C97" s="67"/>
+      <c r="D97" s="66" t="s">
         <v>111</v>
       </c>
-      <c r="E97" s="70"/>
-      <c r="F97" s="90" t="s">
+      <c r="E97" s="66"/>
+      <c r="F97" s="68" t="s">
         <v>75</v>
       </c>
-      <c r="G97" s="91"/>
-      <c r="H97" s="70" t="s">
+      <c r="G97" s="69"/>
+      <c r="H97" s="66" t="s">
         <v>62</v>
       </c>
-      <c r="I97" s="70"/>
-      <c r="J97" s="70"/>
+      <c r="I97" s="66"/>
+      <c r="J97" s="66"/>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A98" s="30">
         <v>4</v>
       </c>
-      <c r="B98" s="70" t="s">
+      <c r="B98" s="66" t="s">
         <v>117</v>
       </c>
-      <c r="C98" s="81"/>
-      <c r="D98" s="70" t="s">
+      <c r="C98" s="67"/>
+      <c r="D98" s="66" t="s">
         <v>118</v>
       </c>
-      <c r="E98" s="70"/>
-      <c r="F98" s="90" t="s">
+      <c r="E98" s="66"/>
+      <c r="F98" s="68" t="s">
         <v>75</v>
       </c>
-      <c r="G98" s="91"/>
-      <c r="H98" s="70" t="s">
+      <c r="G98" s="69"/>
+      <c r="H98" s="66" t="s">
         <v>62</v>
       </c>
-      <c r="I98" s="70"/>
-      <c r="J98" s="70"/>
+      <c r="I98" s="66"/>
+      <c r="J98" s="66"/>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101" s="23" t="s">
@@ -5355,17 +5343,17 @@
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A102" s="66" t="s">
+      <c r="A102" s="81" t="s">
         <v>35</v>
       </c>
-      <c r="B102" s="67"/>
+      <c r="B102" s="82"/>
       <c r="C102" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="D102" s="66" t="s">
+      <c r="D102" s="81" t="s">
         <v>52</v>
       </c>
-      <c r="E102" s="67"/>
+      <c r="E102" s="82"/>
       <c r="F102" s="24" t="s">
         <v>120</v>
       </c>
@@ -5375,21 +5363,21 @@
       <c r="J102" s="25"/>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A103" s="66" t="s">
+      <c r="A103" s="81" t="s">
         <v>53</v>
       </c>
-      <c r="B103" s="67"/>
+      <c r="B103" s="82"/>
       <c r="C103" s="42" t="s">
-        <v>139</v>
-      </c>
-      <c r="D103" s="66" t="s">
+        <v>147</v>
+      </c>
+      <c r="D103" s="81" t="s">
         <v>54</v>
       </c>
-      <c r="E103" s="67"/>
-      <c r="F103" s="87" t="s">
+      <c r="E103" s="82"/>
+      <c r="F103" s="83" t="s">
         <v>100</v>
       </c>
-      <c r="G103" s="87"/>
+      <c r="G103" s="83"/>
       <c r="H103" s="26" t="s">
         <v>55</v>
       </c>
@@ -5411,10 +5399,10 @@
       <c r="J104" s="25"/>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A105" s="71" t="s">
+      <c r="A105" s="84" t="s">
         <v>57</v>
       </c>
-      <c r="B105" s="72"/>
+      <c r="B105" s="85"/>
       <c r="C105" s="24"/>
       <c r="D105" s="28"/>
       <c r="E105" s="28"/>
@@ -5437,19 +5425,19 @@
       <c r="J106" s="25"/>
     </row>
     <row r="107" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="73" t="s">
+      <c r="A107" s="86" t="s">
         <v>59</v>
       </c>
-      <c r="B107" s="72"/>
+      <c r="B107" s="85"/>
       <c r="C107" s="42" t="s">
-        <v>139</v>
-      </c>
-      <c r="D107" s="73" t="s">
+        <v>147</v>
+      </c>
+      <c r="D107" s="86" t="s">
         <v>60</v>
       </c>
-      <c r="E107" s="72"/>
-      <c r="F107" s="89" t="s">
-        <v>140</v>
+      <c r="E107" s="85"/>
+      <c r="F107" s="88" t="s">
+        <v>148</v>
       </c>
       <c r="G107" s="89"/>
       <c r="H107" s="26" t="s">
@@ -5472,25 +5460,25 @@
       <c r="A109" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="B109" s="76" t="s">
+      <c r="B109" s="79" t="s">
         <v>64</v>
       </c>
-      <c r="C109" s="76"/>
-      <c r="D109" s="76"/>
-      <c r="E109" s="76"/>
-      <c r="F109" s="76"/>
+      <c r="C109" s="79"/>
+      <c r="D109" s="79"/>
+      <c r="E109" s="79"/>
+      <c r="F109" s="79"/>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A110" s="30">
         <v>1</v>
       </c>
-      <c r="B110" s="70" t="s">
+      <c r="B110" s="66" t="s">
         <v>108</v>
       </c>
-      <c r="C110" s="70"/>
-      <c r="D110" s="70"/>
-      <c r="E110" s="70"/>
-      <c r="F110" s="70"/>
+      <c r="C110" s="66"/>
+      <c r="D110" s="66"/>
+      <c r="E110" s="66"/>
+      <c r="F110" s="66"/>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A111" s="25"/>
@@ -5508,15 +5496,15 @@
       <c r="A112" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="B112" s="69" t="s">
+      <c r="B112" s="80" t="s">
         <v>65</v>
       </c>
-      <c r="C112" s="69"/>
-      <c r="D112" s="69" t="s">
+      <c r="C112" s="80"/>
+      <c r="D112" s="80" t="s">
         <v>66</v>
       </c>
-      <c r="E112" s="69"/>
-      <c r="F112" s="69"/>
+      <c r="E112" s="80"/>
+      <c r="F112" s="80"/>
       <c r="G112" s="25"/>
       <c r="H112" s="25"/>
       <c r="I112" s="25"/>
@@ -5524,11 +5512,11 @@
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A113" s="30"/>
-      <c r="B113" s="70"/>
-      <c r="C113" s="70"/>
-      <c r="D113" s="70"/>
-      <c r="E113" s="70"/>
-      <c r="F113" s="70"/>
+      <c r="B113" s="66"/>
+      <c r="C113" s="66"/>
+      <c r="D113" s="66"/>
+      <c r="E113" s="66"/>
+      <c r="F113" s="66"/>
       <c r="G113" s="25"/>
       <c r="H113" s="25"/>
       <c r="I113" s="25"/>
@@ -5536,11 +5524,11 @@
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A114" s="30"/>
-      <c r="B114" s="70"/>
-      <c r="C114" s="70"/>
-      <c r="D114" s="70"/>
-      <c r="E114" s="70"/>
-      <c r="F114" s="70"/>
+      <c r="B114" s="66"/>
+      <c r="C114" s="66"/>
+      <c r="D114" s="66"/>
+      <c r="E114" s="66"/>
+      <c r="F114" s="66"/>
       <c r="G114" s="25"/>
       <c r="H114" s="25"/>
       <c r="I114" s="25"/>
@@ -5548,11 +5536,11 @@
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A115" s="30"/>
-      <c r="B115" s="70"/>
-      <c r="C115" s="70"/>
-      <c r="D115" s="70"/>
-      <c r="E115" s="70"/>
-      <c r="F115" s="70"/>
+      <c r="B115" s="66"/>
+      <c r="C115" s="66"/>
+      <c r="D115" s="66"/>
+      <c r="E115" s="66"/>
+      <c r="F115" s="66"/>
       <c r="G115" s="25"/>
       <c r="H115" s="25"/>
       <c r="I115" s="25"/>
@@ -5560,11 +5548,11 @@
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A116" s="30"/>
-      <c r="B116" s="70"/>
-      <c r="C116" s="70"/>
-      <c r="D116" s="70"/>
-      <c r="E116" s="70"/>
-      <c r="F116" s="70"/>
+      <c r="B116" s="66"/>
+      <c r="C116" s="66"/>
+      <c r="D116" s="66"/>
+      <c r="E116" s="66"/>
+      <c r="F116" s="66"/>
       <c r="G116" s="25"/>
       <c r="H116" s="25"/>
       <c r="I116" s="25"/>
@@ -5572,21 +5560,21 @@
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A117" s="32"/>
-      <c r="B117" s="68"/>
-      <c r="C117" s="68"/>
-      <c r="D117" s="68"/>
-      <c r="E117" s="68"/>
-      <c r="F117" s="68"/>
+      <c r="B117" s="71"/>
+      <c r="C117" s="71"/>
+      <c r="D117" s="71"/>
+      <c r="E117" s="71"/>
+      <c r="F117" s="71"/>
       <c r="G117" s="24"/>
       <c r="H117" s="24"/>
       <c r="I117" s="24"/>
       <c r="J117" s="24"/>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A118" s="78" t="s">
+      <c r="A118" s="72" t="s">
         <v>68</v>
       </c>
-      <c r="B118" s="78"/>
+      <c r="B118" s="72"/>
       <c r="C118" s="24"/>
       <c r="D118" s="25"/>
       <c r="E118" s="25"/>
@@ -5600,129 +5588,302 @@
       <c r="C119" s="32"/>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A120" s="80" t="s">
+      <c r="A120" s="70" t="s">
         <v>70</v>
       </c>
-      <c r="B120" s="80" t="s">
+      <c r="B120" s="70" t="s">
         <v>71</v>
       </c>
-      <c r="C120" s="82"/>
-      <c r="D120" s="84" t="s">
+      <c r="C120" s="73"/>
+      <c r="D120" s="75" t="s">
         <v>72</v>
       </c>
-      <c r="E120" s="85"/>
-      <c r="F120" s="77" t="s">
+      <c r="E120" s="76"/>
+      <c r="F120" s="78" t="s">
         <v>73</v>
       </c>
-      <c r="G120" s="77"/>
-      <c r="H120" s="80" t="s">
+      <c r="G120" s="78"/>
+      <c r="H120" s="70" t="s">
         <v>74</v>
       </c>
-      <c r="I120" s="80"/>
-      <c r="J120" s="80"/>
+      <c r="I120" s="70"/>
+      <c r="J120" s="70"/>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A121" s="82"/>
-      <c r="B121" s="83"/>
-      <c r="C121" s="83"/>
-      <c r="D121" s="86"/>
-      <c r="E121" s="86"/>
-      <c r="F121" s="77"/>
-      <c r="G121" s="77"/>
-      <c r="H121" s="80"/>
-      <c r="I121" s="80"/>
-      <c r="J121" s="80"/>
+      <c r="A121" s="73"/>
+      <c r="B121" s="74"/>
+      <c r="C121" s="74"/>
+      <c r="D121" s="77"/>
+      <c r="E121" s="77"/>
+      <c r="F121" s="78"/>
+      <c r="G121" s="78"/>
+      <c r="H121" s="70"/>
+      <c r="I121" s="70"/>
+      <c r="J121" s="70"/>
     </row>
     <row r="122" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="30">
         <v>1</v>
       </c>
-      <c r="B122" s="70" t="s">
+      <c r="B122" s="66" t="s">
         <v>101</v>
       </c>
-      <c r="C122" s="81"/>
-      <c r="D122" s="70" t="s">
+      <c r="C122" s="67"/>
+      <c r="D122" s="66" t="s">
         <v>99</v>
       </c>
-      <c r="E122" s="70"/>
-      <c r="F122" s="70" t="s">
+      <c r="E122" s="66"/>
+      <c r="F122" s="66" t="s">
         <v>75</v>
       </c>
-      <c r="G122" s="70"/>
-      <c r="H122" s="70" t="s">
+      <c r="G122" s="66"/>
+      <c r="H122" s="66" t="s">
         <v>62</v>
       </c>
-      <c r="I122" s="70"/>
-      <c r="J122" s="70"/>
+      <c r="I122" s="66"/>
+      <c r="J122" s="66"/>
     </row>
     <row r="123" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="30">
         <v>2</v>
       </c>
-      <c r="B123" s="70" t="s">
+      <c r="B123" s="66" t="s">
         <v>102</v>
       </c>
-      <c r="C123" s="81"/>
-      <c r="D123" s="70" t="s">
-        <v>144</v>
-      </c>
-      <c r="E123" s="70"/>
-      <c r="F123" s="70" t="s">
+      <c r="C123" s="67"/>
+      <c r="D123" s="66" t="s">
+        <v>143</v>
+      </c>
+      <c r="E123" s="66"/>
+      <c r="F123" s="66" t="s">
         <v>75</v>
       </c>
-      <c r="G123" s="70"/>
-      <c r="H123" s="70" t="s">
+      <c r="G123" s="66"/>
+      <c r="H123" s="66" t="s">
         <v>62</v>
       </c>
-      <c r="I123" s="70"/>
-      <c r="J123" s="70"/>
+      <c r="I123" s="66"/>
+      <c r="J123" s="66"/>
     </row>
     <row r="124" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="30">
         <v>3</v>
       </c>
-      <c r="B124" s="70" t="s">
+      <c r="B124" s="66" t="s">
         <v>110</v>
       </c>
-      <c r="C124" s="81"/>
-      <c r="D124" s="70" t="s">
+      <c r="C124" s="67"/>
+      <c r="D124" s="66" t="s">
         <v>111</v>
       </c>
-      <c r="E124" s="70"/>
-      <c r="F124" s="70" t="s">
+      <c r="E124" s="66"/>
+      <c r="F124" s="66" t="s">
         <v>75</v>
       </c>
-      <c r="G124" s="70"/>
-      <c r="H124" s="70" t="s">
+      <c r="G124" s="66"/>
+      <c r="H124" s="66" t="s">
         <v>62</v>
       </c>
-      <c r="I124" s="70"/>
-      <c r="J124" s="70"/>
+      <c r="I124" s="66"/>
+      <c r="J124" s="66"/>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A125" s="30">
         <v>4</v>
       </c>
-      <c r="B125" s="70" t="s">
+      <c r="B125" s="66" t="s">
         <v>117</v>
       </c>
-      <c r="C125" s="81"/>
-      <c r="D125" s="70" t="s">
+      <c r="C125" s="67"/>
+      <c r="D125" s="66" t="s">
         <v>121</v>
       </c>
-      <c r="E125" s="70"/>
-      <c r="F125" s="70" t="s">
+      <c r="E125" s="66"/>
+      <c r="F125" s="66" t="s">
         <v>75</v>
       </c>
-      <c r="G125" s="70"/>
-      <c r="H125" s="70" t="s">
+      <c r="G125" s="66"/>
+      <c r="H125" s="66" t="s">
         <v>62</v>
       </c>
-      <c r="I125" s="70"/>
-      <c r="J125" s="70"/>
+      <c r="I125" s="66"/>
+      <c r="J125" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="197">
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F20:G21"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="H20:J21"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="H44:J44"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:C21"/>
+    <mergeCell ref="D20:E21"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="B34:F34"/>
+    <mergeCell ref="B35:F35"/>
+    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="H42:J43"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:C43"/>
+    <mergeCell ref="D42:E43"/>
+    <mergeCell ref="F42:G43"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="D59:F59"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="D64:F64"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="D62:F62"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="B56:F56"/>
+    <mergeCell ref="B57:F57"/>
+    <mergeCell ref="H71:J71"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="D60:F60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="D61:F61"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="D63:F63"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="F69:G69"/>
+    <mergeCell ref="H69:J69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="F70:G70"/>
+    <mergeCell ref="H70:J70"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="B67:C68"/>
+    <mergeCell ref="D67:E68"/>
+    <mergeCell ref="F67:G68"/>
+    <mergeCell ref="H67:J68"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="D76:E76"/>
+    <mergeCell ref="F76:G76"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="F71:G71"/>
+    <mergeCell ref="B86:C86"/>
+    <mergeCell ref="D86:F86"/>
+    <mergeCell ref="B87:C87"/>
+    <mergeCell ref="D87:F87"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="D88:F88"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="D80:E80"/>
+    <mergeCell ref="F80:G80"/>
+    <mergeCell ref="B82:F82"/>
+    <mergeCell ref="B83:F83"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="D85:F85"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="D89:F89"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="D90:F90"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="A93:A94"/>
+    <mergeCell ref="B93:C94"/>
+    <mergeCell ref="D93:E94"/>
+    <mergeCell ref="F93:G94"/>
+    <mergeCell ref="B97:C97"/>
+    <mergeCell ref="D97:E97"/>
+    <mergeCell ref="F97:G97"/>
+    <mergeCell ref="H97:J97"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="D102:E102"/>
+    <mergeCell ref="H93:J94"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="D95:E95"/>
+    <mergeCell ref="F95:G95"/>
+    <mergeCell ref="H95:J95"/>
+    <mergeCell ref="B96:C96"/>
+    <mergeCell ref="D96:E96"/>
+    <mergeCell ref="F96:G96"/>
+    <mergeCell ref="H96:J96"/>
+    <mergeCell ref="B109:F109"/>
+    <mergeCell ref="B110:F110"/>
+    <mergeCell ref="B112:C112"/>
+    <mergeCell ref="D112:F112"/>
+    <mergeCell ref="B113:C113"/>
+    <mergeCell ref="D113:F113"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="D103:E103"/>
+    <mergeCell ref="F103:G103"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="A107:B107"/>
+    <mergeCell ref="D107:E107"/>
+    <mergeCell ref="F107:G107"/>
+    <mergeCell ref="A120:A121"/>
+    <mergeCell ref="B120:C121"/>
+    <mergeCell ref="D120:E121"/>
+    <mergeCell ref="F120:G121"/>
+    <mergeCell ref="B114:C114"/>
+    <mergeCell ref="D114:F114"/>
+    <mergeCell ref="B115:C115"/>
+    <mergeCell ref="D115:F115"/>
+    <mergeCell ref="B116:C116"/>
+    <mergeCell ref="D116:F116"/>
     <mergeCell ref="B125:C125"/>
     <mergeCell ref="D125:E125"/>
     <mergeCell ref="F125:G125"/>
@@ -5747,179 +5908,6 @@
     <mergeCell ref="B117:C117"/>
     <mergeCell ref="D117:F117"/>
     <mergeCell ref="A118:B118"/>
-    <mergeCell ref="A120:A121"/>
-    <mergeCell ref="B120:C121"/>
-    <mergeCell ref="D120:E121"/>
-    <mergeCell ref="F120:G121"/>
-    <mergeCell ref="B114:C114"/>
-    <mergeCell ref="D114:F114"/>
-    <mergeCell ref="B115:C115"/>
-    <mergeCell ref="D115:F115"/>
-    <mergeCell ref="B116:C116"/>
-    <mergeCell ref="D116:F116"/>
-    <mergeCell ref="B109:F109"/>
-    <mergeCell ref="B110:F110"/>
-    <mergeCell ref="B112:C112"/>
-    <mergeCell ref="D112:F112"/>
-    <mergeCell ref="B113:C113"/>
-    <mergeCell ref="D113:F113"/>
-    <mergeCell ref="A103:B103"/>
-    <mergeCell ref="D103:E103"/>
-    <mergeCell ref="F103:G103"/>
-    <mergeCell ref="A105:B105"/>
-    <mergeCell ref="A107:B107"/>
-    <mergeCell ref="D107:E107"/>
-    <mergeCell ref="F107:G107"/>
-    <mergeCell ref="B97:C97"/>
-    <mergeCell ref="D97:E97"/>
-    <mergeCell ref="F97:G97"/>
-    <mergeCell ref="H97:J97"/>
-    <mergeCell ref="A102:B102"/>
-    <mergeCell ref="D102:E102"/>
-    <mergeCell ref="H93:J94"/>
-    <mergeCell ref="B95:C95"/>
-    <mergeCell ref="D95:E95"/>
-    <mergeCell ref="F95:G95"/>
-    <mergeCell ref="H95:J95"/>
-    <mergeCell ref="B96:C96"/>
-    <mergeCell ref="D96:E96"/>
-    <mergeCell ref="F96:G96"/>
-    <mergeCell ref="H96:J96"/>
-    <mergeCell ref="B89:C89"/>
-    <mergeCell ref="D89:F89"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="D90:F90"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="A93:A94"/>
-    <mergeCell ref="B93:C94"/>
-    <mergeCell ref="D93:E94"/>
-    <mergeCell ref="F93:G94"/>
-    <mergeCell ref="B86:C86"/>
-    <mergeCell ref="D86:F86"/>
-    <mergeCell ref="B87:C87"/>
-    <mergeCell ref="D87:F87"/>
-    <mergeCell ref="B88:C88"/>
-    <mergeCell ref="D88:F88"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="D80:E80"/>
-    <mergeCell ref="F80:G80"/>
-    <mergeCell ref="B82:F82"/>
-    <mergeCell ref="B83:F83"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="D85:F85"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="D75:E75"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="D76:E76"/>
-    <mergeCell ref="F76:G76"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="D71:E71"/>
-    <mergeCell ref="F71:G71"/>
-    <mergeCell ref="H71:J71"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="D60:F60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="D61:F61"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="D63:F63"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="F69:G69"/>
-    <mergeCell ref="H69:J69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="F70:G70"/>
-    <mergeCell ref="H70:J70"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="B67:C68"/>
-    <mergeCell ref="D67:E68"/>
-    <mergeCell ref="F67:G68"/>
-    <mergeCell ref="H67:J68"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="D59:F59"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="D64:F64"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="D62:F62"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="B56:F56"/>
-    <mergeCell ref="B57:F57"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B42:C43"/>
-    <mergeCell ref="D42:E43"/>
-    <mergeCell ref="F42:G43"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="B34:F34"/>
-    <mergeCell ref="B35:F35"/>
-    <mergeCell ref="H45:J45"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="H42:J43"/>
-    <mergeCell ref="H20:J21"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="H44:J44"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:C21"/>
-    <mergeCell ref="D20:E21"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:F39"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F20:G21"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
   </mergeCells>
   <pageMargins left="1.1811023622047245" right="0.78740157480314965" top="0.78740157480314965" bottom="0.78740157480314965" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -5927,9 +5915,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6150,19 +6141,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8655864D-7A2A-4402-AA52-01C6DA779FC3}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6913AF88-A569-4E93-8BD1-0040FA9C021A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -6187,9 +6174,10 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6913AF88-A569-4E93-8BD1-0040FA9C021A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8655864D-7A2A-4402-AA52-01C6DA779FC3}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>